--- a/biology/Médecine/William_Musgrave/William_Musgrave.xlsx
+++ b/biology/Médecine/William_Musgrave/William_Musgrave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Musgrave est un médecin et antiquaire anglais, né à Carlton-Musgrave, comté de Somerset, en 1657, mort à Exeter en 1721.
 Il commence d’abord par étudier pendant plusieurs années le droit à l’université d’Oxford ; mais il y renonce ensuite pour se livrer complètement à la médecine. Ses études médicales sont brillantes et il est reçu docteur en 1689. 
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses écrits qui concernent la médecine sont : Dissertatio de arthritide symptomatica (Oxford, 1703, in-8°) ; Dissertatio de des Salute, in qua illius symbola, templa, statum, nummi, inscriptiones exhibentur et illustrantur (Oxford, 1716, in-4°); De arthritide primigenia et regulari (Londres, 1774, in-8°). 
 Le recueil intitulé Transactions philosophiques contient de lui plusieurs articles, parmi lesquels nous citerons ; An account of the cutting of the cæcum (1683) ; Some experiments relating to digestion and of a large bed of glands observed in the stomach of a yack (1684); On the cause and use of respiration (1698) ; On throwing warm water into the thorax (1698) ; Of a periodical palsy in a young woman (1098) ; Experiments upon freezing (1698) ; Argument for the most frequent use of laryngotomy (1698) ; Of a polypus found in a dog ; Account of hydratids voided by stool (1705) ; On transmitting blue coloured liquors into the lacteals (1700). 
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« William Musgrave », dans Pierre Larousse, Grand dictionnaire universel du XIXe siècle, Paris, Administration du grand dictionnaire universel, 15 vol., 1863-1890 [détail des éditions].</t>
         </is>
